--- a/xlsx/纽约_intext.xlsx
+++ b/xlsx/纽约_intext.xlsx
@@ -29,7 +29,7 @@
     <t>紐約 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_纽约</t>
+    <t>体育运动_体育运动_种族歧视_纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82</t>
@@ -26203,7 +26203,7 @@
         <v>1228</v>
       </c>
       <c r="G655" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H655" t="s">
         <v>4</v>
